--- a/pub/SecurityTeam/SecuritySurvey08/20090714140736-SurveyExport-rc2.xlsx
+++ b/pub/SecurityTeam/SecuritySurvey08/20090714140736-SurveyExport-rc2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" tabRatio="491" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" tabRatio="491" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meta-data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2508,24 +2508,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="64092032"/>
-        <c:axId val="65755776"/>
+        <c:axId val="77559680"/>
+        <c:axId val="77561216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64092032"/>
+        <c:axId val="77559680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65755776"/>
+        <c:crossAx val="77561216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65755776"/>
+        <c:axId val="77561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2533,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64092032"/>
+        <c:crossAx val="77559680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2546,7 +2546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3461,24 +3461,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="109750528"/>
-        <c:axId val="109764608"/>
+        <c:axId val="79426304"/>
+        <c:axId val="79427840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109750528"/>
+        <c:axId val="79426304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109764608"/>
+        <c:crossAx val="79427840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109764608"/>
+        <c:axId val="79427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,20 +3486,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109750528"/>
+        <c:crossAx val="79426304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3575,10 +3574,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.447176016036488E-2"/>
+          <c:x val="4.4471760160364873E-2"/>
           <c:y val="6.7728766990812164E-2"/>
           <c:w val="0.80867687426132684"/>
-          <c:h val="0.44265698182369773"/>
+          <c:h val="0.44265698182369784"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3859,24 +3858,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="109772160"/>
-        <c:axId val="111674496"/>
+        <c:axId val="78318208"/>
+        <c:axId val="78328192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109772160"/>
+        <c:axId val="78318208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111674496"/>
+        <c:crossAx val="78328192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111674496"/>
+        <c:axId val="78328192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,20 +3883,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109772160"/>
+        <c:crossAx val="78318208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4023,8 +4021,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.155647385597412E-2"/>
           <c:y val="1.4175405430000195E-2"/>
-          <c:w val="0.92365536263039971"/>
-          <c:h val="0.62819594616317587"/>
+          <c:w val="0.92365536263039982"/>
+          <c:h val="0.6281959461631762"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4423,11 +4421,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="123084800"/>
-        <c:axId val="123086336"/>
+        <c:axId val="78511104"/>
+        <c:axId val="79168256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123084800"/>
+        <c:axId val="78511104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4443,14 +4441,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123086336"/>
+        <c:crossAx val="79168256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123086336"/>
+        <c:axId val="79168256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,20 +4456,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123084800"/>
+        <c:crossAx val="78511104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6942,7 +6939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField showAll="0"/>
@@ -7149,7 +7146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField axis="axisRow" showAll="0">
@@ -7407,7 +7404,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField axis="axisRow" showAll="0">
@@ -7635,7 +7632,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="53">
     <pivotField axis="axisRow" showAll="0">
@@ -9440,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -9679,9 +9676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
